--- a/importexport/src/main/resources/import/books_sample.xlsx
+++ b/importexport/src/main/resources/import/books_sample.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">The Great Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">FANTASY</t>
+    <t xml:space="preserve">Fantasy</t>
   </si>
   <si>
     <t xml:space="preserve">Super książka</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Londyn NW</t>
   </si>
   <si>
-    <t xml:space="preserve">HORROR</t>
+    <t xml:space="preserve">Horror</t>
   </si>
   <si>
     <t xml:space="preserve">Całkiem niezła</t>
@@ -231,18 +231,19 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
